--- a/schemes/список компонентов.xlsx
+++ b/schemes/список компонентов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Администратор\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\NixieClock\schemes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>ArduinoNano</t>
   </si>
@@ -39,24 +39,15 @@
     <t>8DIP300</t>
   </si>
   <si>
-    <t>IRF840,4.7UF,510P,0.1uf,LM7805,C1,C2</t>
-  </si>
-  <si>
     <t>HER106</t>
   </si>
   <si>
     <t>DIODE-1N4148</t>
   </si>
   <si>
-    <t>TLP627,TLP627,TLP627,TLP627,TLP627,TLP627,TLP627</t>
-  </si>
-  <si>
     <t>DIP-4</t>
   </si>
   <si>
-    <t>DHT22</t>
-  </si>
-  <si>
     <t>RHT03_DHT-22</t>
   </si>
   <si>
@@ -66,9 +57,6 @@
     <t>BC547</t>
   </si>
   <si>
-    <t>ds18b20,KT3102,KT3107</t>
-  </si>
-  <si>
     <t>TO-92(TO-92-3)-F</t>
   </si>
   <si>
@@ -78,27 +66,9 @@
     <t>CAP-D5.0xF2.0</t>
   </si>
   <si>
-    <t>220OMS</t>
-  </si>
-  <si>
-    <t>AXIAL-0.8</t>
-  </si>
-  <si>
-    <t>CAP-D5.0XF2.0</t>
-  </si>
-  <si>
-    <t>IN-12,IN-12,IN-12,IN-12</t>
-  </si>
-  <si>
-    <t>DISP_IN-12_SOCKET</t>
-  </si>
-  <si>
     <t>Корпус</t>
   </si>
   <si>
-    <t>Деталь</t>
-  </si>
-  <si>
     <t>Количество</t>
   </si>
   <si>
@@ -106,6 +76,69 @@
   </si>
   <si>
     <t>10k, 1M, 390k, 330, 10k, 470, 10k, 4.7K, 1k, 1k, 10k, 3k, 33k, 330, 250k</t>
+  </si>
+  <si>
+    <t>Номинал</t>
+  </si>
+  <si>
+    <t>Компонент</t>
+  </si>
+  <si>
+    <t>Резистор 0.22 Ом 2 Вт вместо резистора 220 Ом на схеме!</t>
+  </si>
+  <si>
+    <t>Платформа</t>
+  </si>
+  <si>
+    <t>Дешифратор</t>
+  </si>
+  <si>
+    <t>ШИМ-контроллер</t>
+  </si>
+  <si>
+    <t>Резистор</t>
+  </si>
+  <si>
+    <t>Диод</t>
+  </si>
+  <si>
+    <t>TLP627</t>
+  </si>
+  <si>
+    <t>Оптопара</t>
+  </si>
+  <si>
+    <t>Датчик температуры и влажности</t>
+  </si>
+  <si>
+    <t>KT3102,KT3107</t>
+  </si>
+  <si>
+    <t>DHT22, ds18b20 (не работает в этой схеме)</t>
+  </si>
+  <si>
+    <t>Индуктивность</t>
+  </si>
+  <si>
+    <t>Axial</t>
+  </si>
+  <si>
+    <t>Конденсатор</t>
+  </si>
+  <si>
+    <t>Транзистор</t>
+  </si>
+  <si>
+    <t>LM7805</t>
+  </si>
+  <si>
+    <t>IRF840</t>
+  </si>
+  <si>
+    <t>4.7UF,510P,0.1uf,C1,C2</t>
+  </si>
+  <si>
+    <t>Стабилизатор напряжения</t>
   </si>
 </sst>
 </file>
@@ -930,179 +963,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
